--- a/pred_ohlcv/54_21/2019-11-20 WET ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-20 WET ohlcv.xlsx
@@ -808,7 +808,7 @@
         <v>-45412156.6205</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-45412156.6205</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-45412156.6205</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-45437608.6205</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-45437608.6205</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-45445575.0614</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-45410147.07979999</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-45399222.4946</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-45385906.8162</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-45083438.3356</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-44781071.4625</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-69662087.4558</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-25333086.71287519</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-25393950.56987519</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-25781285.20847519</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-25781285.20847519</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-25458356.49307519</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-26651991.52837519</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-27852191.27737519</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-27852102.27737519</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-28429035.78647519</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-29532025.05067519</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-31136057.18497519</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-30938158.43597519</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-30897201.86137519</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-30930990.14807519</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-30659309.06057519</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-33759234.75835323</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-33877117.37075323</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-33588455.68845323</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-33782801.81045323</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-33782801.81045323</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-33782801.81045323</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-33430906.34265323</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-33388290.23295323</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-33637188.74355323</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-34852471.59325323</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-35931400.48235322</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-35931400.48235322</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-36061434.33735321</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-36061434.33735321</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-36557929.75725321</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-35001982.10405321</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-35001982.10405321</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-35026749.32905322</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-35026749.32905322</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-35026749.32905322</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-35026749.32905322</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-35421962.79955322</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-35239778.02665322</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-35239614.58595321</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-35258842.89425322</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-35258842.89425322</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-35258842.89425322</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-35244550.17105322</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-35475785.32265323</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-35475785.32265323</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-35474785.32265323</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-35474785.32265323</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-35474785.32265323</v>
       </c>
       <c r="H191">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-35365723.00625323</v>
       </c>
       <c r="H192">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-35365339.38295323</v>
       </c>
       <c r="H193">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-35392854.87985323</v>
       </c>
       <c r="H194">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-35392854.87985323</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-35392854.87985323</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-35392854.87985323</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-35432776.34365322</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-35439776.34365322</v>
       </c>
       <c r="H199">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-35439776.34365322</v>
       </c>
       <c r="H200">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-35461699.86185323</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-35571035.80155323</v>
       </c>
       <c r="H202">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-35603124.99865323</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-35603124.99865323</v>
       </c>
       <c r="H204">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-35597124.99865323</v>
       </c>
       <c r="H205">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-35604353.94635323</v>
       </c>
       <c r="H206">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-35775012.69825323</v>
       </c>
       <c r="H207">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-35775012.69825323</v>
       </c>
       <c r="H208">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-35735091.23445323</v>
       </c>
       <c r="H209">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-35735091.23445323</v>
       </c>
       <c r="H210">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-35611137.05505323</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-34238706.44695324</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-34238506.44695324</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-34116593.09395324</v>
       </c>
       <c r="H214">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-33949487.52455324</v>
       </c>
       <c r="H215">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-30013551.61868041</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-30017300.34138041</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-30263325.25218041</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-29396023.16158041</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-28141606.19138042</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-27636168.87818041</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-28287227.68743042</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-28337401.68743042</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-28299846.77783042</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-28246139.79603042</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-28428095.86343042</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-28521945.36983042</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-28521945.36983042</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-28657823.24263042</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-28672320.19883042</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-29328864.82183042</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-29009822.48353042</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-29013167.22923043</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-28996849.32523043</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-29140737.29823043</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-29128046.97563043</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-29072083.78503043</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-29179894.79723043</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-29073238.55923043</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-11-20 WET ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-20 WET ohlcv.xlsx
@@ -938,7 +938,7 @@
         <v>-45445575.0614</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-45410147.07979999</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-45399222.4946</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-69662087.4558</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-62993263.6922</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-62989200.59817518</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-62937200.59817518</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-41976486.45237519</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-25333086.71287519</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-25393950.56987519</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-25781285.20847519</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-25781285.20847519</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-25458356.49307519</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-26651991.52837519</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-27852191.27737519</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-27852102.27737519</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-28429035.78647519</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-29532025.05067519</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-31136057.18497519</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-30938158.43597519</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-30897201.86137519</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-30930990.14807519</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-30659309.06057519</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-33759234.75835323</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-33877117.37075323</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-33588455.68845323</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-33782801.81045323</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-33782801.81045323</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-33782801.81045323</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-33430906.34265323</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-33388290.23295323</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-32962383.42775323</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-32961466.70315323</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-33080046.68975323</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-33079951.68975323</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-33075009.67185323</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-33075009.67185323</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-33637281.74355323</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-33637188.74355323</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-34918565.53365323</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-34853085.66205323</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-34852471.59325323</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-34886379.24085322</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-35931400.48235322</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-35931400.48235322</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-36061434.33735321</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-36061434.33735321</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-36557929.75725321</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-35001982.10405321</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-35001982.10405321</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-35026749.32905322</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-35026749.32905322</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-35026749.32905322</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-35026749.32905322</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-35421962.79955322</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-35239778.02665322</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-35239614.58595321</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-35258842.89425322</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-35258842.89425322</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-35258842.89425322</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-35244550.17105322</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-35230999.01975322</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-35230999.01975322</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-35249680.73915322</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-35284754.02265322</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-35284654.02265322</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-35284554.02265322</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-35220546.74155322</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-35220258.00585323</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-35220258.00585323</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-35216004.45175323</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-35149545.88035323</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-35149929.70395323</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-35204446.09175323</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-35454013.13035323</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-35454013.13035323</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-35475785.32265323</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-35475785.32265323</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-35475785.32265323</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-35474785.32265323</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-35474785.32265323</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-35474785.32265323</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-35365723.00625323</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-35365339.38295323</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-35392854.87985323</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-35392854.87985323</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-35392854.87985323</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-35392854.87985323</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-35432776.34365322</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-35439776.34365322</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-35439776.34365322</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-35461699.86185323</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-35571035.80155323</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-35603124.99865323</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-35603124.99865323</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-35597124.99865323</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-35604353.94635323</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-35775012.69825323</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-35775012.69825323</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-35735091.23445323</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-35735091.23445323</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-35611137.05505323</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-34238706.44695324</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-34238506.44695324</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-34116593.09395324</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-33949487.52455324</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-33276975.83915324</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-35415156.42565324</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-35414156.42565324</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-35321979.52575324</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-33076164.37225325</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-33289492.68595325</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-33323149.97295325</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-33300677.88455325</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-33484952.72335325</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-33410675.28285325</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-32194489.17936581</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-32381417.98424799</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-32403929.59954799</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-29920259.81581761</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-30013551.61868041</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-30017300.34138041</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-30634034.65928041</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-30263325.25218041</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-29396023.16158041</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-28141606.19138042</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-27636168.87818041</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-28287227.68743042</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-28337401.68743042</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-28299846.77783042</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-28246139.79603042</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-28428095.86343042</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-28521945.36983042</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-28521945.36983042</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-28657823.24263042</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-28672320.19883042</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-29328864.82183042</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-29045174.93473042</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-29045174.93473042</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-29042629.14743042</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-28936910.81443042</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-29009822.48353042</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-29013167.22923043</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-28996849.32523043</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-29140737.29823043</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-29128046.97563043</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-29072083.78503043</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-29179894.79723043</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-29073238.55923043</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
